--- a/ApiTestingProject/AirportAndCityTestCases.xlsx
+++ b/ApiTestingProject/AirportAndCityTestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fazal\Sparta\ApiTestingProject\ApiTestingProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C504212-9192-4402-B488-C8035D433AD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFEC725-D647-437C-AA57-F5675D9AD2AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{715253DA-AD65-4105-A84C-1A70B8600DD9}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{715253DA-AD65-4105-A84C-1A70B8600DD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
